--- a/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.1874063484949393</v>
+        <v>-1.1874063588047326</v>
       </c>
       <c r="C2">
-        <v>-1.6842280823383775</v>
+        <v>-1.6842280729518051</v>
       </c>
       <c r="D2">
-        <v>-4.4467550648467125</v>
+        <v>-4.4467550644250915</v>
       </c>
       <c r="E2">
-        <v>-3.6157323545308921</v>
+        <v>-3.6157323479191565</v>
       </c>
       <c r="F2">
-        <v>-14.440636478443079</v>
+        <v>-14.440636468862062</v>
       </c>
       <c r="G2">
-        <v>7.8974950802393513</v>
+        <v>7.8974950913786657</v>
       </c>
       <c r="H2">
-        <v>-5.3982141468284368</v>
+        <v>-5.3982141536212165</v>
       </c>
       <c r="I2">
-        <v>5.7793843840008119</v>
+        <v>5.779384393735131</v>
       </c>
       <c r="J2">
-        <v>5.0996308832728161</v>
+        <v>5.0996308749521768</v>
       </c>
       <c r="K2">
-        <v>-13.161255228811552</v>
+        <v>-13.16125522085046</v>
       </c>
       <c r="L2">
-        <v>6.9897562942887879</v>
+        <v>6.9897562914394005</v>
       </c>
       <c r="M2">
-        <v>-1.759119229251473</v>
+        <v>-1.7591192237467053</v>
       </c>
       <c r="N2">
-        <v>-5.7059583157161843E-2</v>
+        <v>-5.7059583502078765E-2</v>
       </c>
       <c r="O2">
-        <v>10.439479478755723</v>
+        <v>10.439479481171283</v>
       </c>
       <c r="P2">
-        <v>0.3437503323087655</v>
+        <v>0.34375034779371189</v>
       </c>
       <c r="Q2">
-        <v>-1.370928882941119</v>
+        <v>-1.3709288661713688</v>
       </c>
       <c r="R2">
-        <v>-0.27453727557092583</v>
+        <v>-0.2745372631197423</v>
       </c>
       <c r="S2">
-        <v>5.4963549258419819</v>
+        <v>5.4963549030658561</v>
       </c>
       <c r="T2">
-        <v>-5.5852339839794976</v>
+        <v>-5.585233981175854</v>
       </c>
       <c r="U2">
-        <v>6.7016400288885674</v>
+        <v>6.7016400345903202</v>
       </c>
       <c r="V2">
-        <v>-6.4929975813033503</v>
+        <v>-6.4929975836391147</v>
       </c>
       <c r="W2">
-        <v>9.2097730420667965</v>
+        <v>9.2097730441302659</v>
       </c>
       <c r="X2">
-        <v>-0.61987225258014345</v>
+        <v>-0.61987223472022757</v>
       </c>
       <c r="Y2">
-        <v>-2.3083522888961463</v>
+        <v>-2.30835229492323</v>
       </c>
       <c r="Z2">
-        <v>-20.999676657233959</v>
+        <v>-20.999676658685594</v>
       </c>
       <c r="AA2">
-        <v>9.1232326270984476</v>
+        <v>9.1232326325637381</v>
       </c>
       <c r="AB2">
-        <v>-1.2733965773119962</v>
+        <v>-1.2733965618927674</v>
       </c>
       <c r="AC2">
-        <v>7.9756001944302559</v>
+        <v>7.9756002081099844</v>
       </c>
       <c r="AD2">
-        <v>-4.8537602635251673</v>
+        <v>-4.8537602473102304</v>
       </c>
       <c r="AE2">
-        <v>-24.596626180509926</v>
+        <v>-24.596626179627329</v>
       </c>
       <c r="AF2">
-        <v>-1.2679417951486038</v>
+        <v>-1.2679417752681839</v>
       </c>
       <c r="AG2">
-        <v>1.2505137056173561</v>
+        <v>1.2505137067325711</v>
       </c>
       <c r="AH2">
-        <v>-0.60136126117813071</v>
+        <v>-0.60136123305463196</v>
       </c>
       <c r="AI2">
-        <v>56.462608109321025</v>
+        <v>56.462608122718031</v>
       </c>
       <c r="AJ2">
-        <v>-1.5476122338589364</v>
+        <v>-1.5476122124810439</v>
       </c>
       <c r="AK2">
-        <v>1.0566711563238127</v>
+        <v>1.0566711623159319</v>
       </c>
       <c r="AL2">
-        <v>-7.3286659897773845</v>
+        <v>-7.3286659859495114</v>
       </c>
       <c r="AM2">
-        <v>-0.17123224183223576</v>
+        <v>-0.17123224000728032</v>
       </c>
       <c r="AN2">
-        <v>0.37687517377170915</v>
+        <v>0.37687517840857543</v>
       </c>
       <c r="AO2">
-        <v>-3.5983374297930357</v>
+        <v>-3.5983374058560926</v>
       </c>
       <c r="AP2">
-        <v>2.2208215510251268</v>
+        <v>2.220821557466278</v>
       </c>
       <c r="AQ2">
-        <v>0.13435707163038366</v>
+        <v>0.13435707959168222</v>
       </c>
       <c r="AR2">
-        <v>1.3678392338958048</v>
+        <v>1.3678392454334509</v>
       </c>
       <c r="AS2">
-        <v>-0.38879798215713829</v>
+        <v>-0.38879796951015205</v>
       </c>
       <c r="AT2">
-        <v>-1.3544038998500416</v>
+        <v>-1.3544038843092743</v>
       </c>
       <c r="AU2">
-        <v>0.95511656017714208</v>
+        <v>0.95511657325889521</v>
       </c>
       <c r="AV2">
-        <v>-0.73509868918617904</v>
+        <v>-0.73509868711779025</v>
       </c>
       <c r="AW2">
-        <v>-0.29289583980834677</v>
+        <v>-0.29289582159082489</v>
       </c>
       <c r="AX2">
-        <v>-3.6080237950311491</v>
+        <v>-3.6080237861667377</v>
       </c>
       <c r="AY2">
-        <v>2.6117853157327198</v>
+        <v>2.611785322427139</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.840686070422914</v>
+        <v>2.8406860689241018</v>
       </c>
       <c r="C3">
-        <v>-0.24371917694262471</v>
+        <v>-0.24371918322241892</v>
       </c>
       <c r="D3">
-        <v>1.2297302830740724</v>
+        <v>1.2297302694184773</v>
       </c>
       <c r="E3">
-        <v>-9.9843876262585223</v>
+        <v>-9.9843875979247816</v>
       </c>
       <c r="F3">
-        <v>6.9591280100922024</v>
+        <v>6.9591280205572357</v>
       </c>
       <c r="G3">
-        <v>0.3588214127923286</v>
+        <v>0.35882140479531605</v>
       </c>
       <c r="H3">
-        <v>3.5891356880412042</v>
+        <v>3.5891356951176583</v>
       </c>
       <c r="I3">
-        <v>1.2408405757644678</v>
+        <v>1.2408405875901496</v>
       </c>
       <c r="J3">
-        <v>-0.50358201281194481</v>
+        <v>-0.50358200088287297</v>
       </c>
       <c r="K3">
-        <v>34.515416611086771</v>
+        <v>34.515416600312903</v>
       </c>
       <c r="L3">
-        <v>28.868627557286882</v>
+        <v>28.868627550418974</v>
       </c>
       <c r="M3">
-        <v>-2.6318918742197206</v>
+        <v>-2.6320126098915937</v>
       </c>
       <c r="N3">
-        <v>-0.50474310930448574</v>
+        <v>-0.50474310799385047</v>
       </c>
       <c r="O3">
-        <v>3.2310767046127356</v>
+        <v>3.2310767151311972</v>
       </c>
       <c r="P3">
-        <v>-17.409165322890232</v>
+        <v>-17.409165318848071</v>
       </c>
       <c r="Q3">
-        <v>-2.3781458814312098</v>
+        <v>-2.3781458705217466</v>
       </c>
       <c r="R3">
-        <v>5.1597247610414447</v>
+        <v>5.1597247839300042</v>
       </c>
       <c r="S3">
-        <v>6.6308408913717658</v>
+        <v>6.6308408988483754</v>
       </c>
       <c r="T3">
-        <v>6.4313067687754524</v>
+        <v>6.4313067686025098</v>
       </c>
       <c r="U3">
-        <v>-5.9469314182817916</v>
+        <v>-5.9469314286241675</v>
       </c>
       <c r="V3">
-        <v>5.6011129266246424</v>
+        <v>5.6011129277651523</v>
       </c>
       <c r="W3">
-        <v>3.4602836565709651</v>
+        <v>3.4602836727690782</v>
       </c>
       <c r="X3">
-        <v>9.5612132235823157</v>
+        <v>9.561213236445445</v>
       </c>
       <c r="Y3">
-        <v>5.1231344065300197</v>
+        <v>5.123134413919165</v>
       </c>
       <c r="Z3">
-        <v>-4.9296672411741138</v>
+        <v>-4.9296672327878275</v>
       </c>
       <c r="AA3">
-        <v>2.069822138978171</v>
+        <v>2.0698221546737674</v>
       </c>
       <c r="AB3">
-        <v>-0.80647412792078876</v>
+        <v>-0.80647413569933624</v>
       </c>
       <c r="AC3">
-        <v>1.8151964528078151</v>
+        <v>1.8151964536433054</v>
       </c>
       <c r="AD3">
-        <v>-7.770352613299691</v>
+        <v>-7.7703526052423078</v>
       </c>
       <c r="AE3">
-        <v>-2.833389835615177</v>
+        <v>-2.8333898225600911</v>
       </c>
       <c r="AF3">
-        <v>0.93400112072526809</v>
+        <v>0.9340011268602606</v>
       </c>
       <c r="AG3">
-        <v>13.697809772034987</v>
+        <v>13.697809767313638</v>
       </c>
       <c r="AH3">
-        <v>6.6966322968749701</v>
+        <v>6.6966323069674374</v>
       </c>
       <c r="AI3">
-        <v>-0.24252240708816458</v>
+        <v>-0.24252242036985769</v>
       </c>
       <c r="AJ3">
-        <v>-5.0230910502682677E-2</v>
+        <v>-5.0230929510223107E-2</v>
       </c>
       <c r="AK3">
-        <v>33.039641670384</v>
+        <v>33.039641667055029</v>
       </c>
       <c r="AL3">
-        <v>-0.49863455525780725</v>
+        <v>-0.49863454223393855</v>
       </c>
       <c r="AM3">
-        <v>-0.52166907766971415</v>
+        <v>-0.52166908404568468</v>
       </c>
       <c r="AN3">
-        <v>2.3353231316270535</v>
+        <v>2.335323146327184</v>
       </c>
       <c r="AO3">
-        <v>12.118428205936235</v>
+        <v>12.118428200983541</v>
       </c>
       <c r="AP3">
-        <v>-5.9542176650305185</v>
+        <v>-5.9542176584270736</v>
       </c>
       <c r="AQ3">
-        <v>-0.76322705110917344</v>
+        <v>-0.76322703012268489</v>
       </c>
       <c r="AR3">
-        <v>-1.943853990514617</v>
+        <v>-1.9438539848862026</v>
       </c>
       <c r="AS3">
-        <v>1.7447358119623106</v>
+        <v>1.744735822268348</v>
       </c>
       <c r="AT3">
-        <v>-2.8059240586182224</v>
+        <v>-2.8059240359554973</v>
       </c>
       <c r="AU3">
-        <v>-0.59789279829133624</v>
+        <v>-0.59789280357953078</v>
       </c>
       <c r="AV3">
-        <v>-0.62881768365237334</v>
+        <v>-0.62881768164244711</v>
       </c>
       <c r="AW3">
-        <v>-3.0976072099400178</v>
+        <v>-3.0976072018858196</v>
       </c>
       <c r="AX3">
-        <v>-23.822538713549758</v>
+        <v>-23.822538710767208</v>
       </c>
       <c r="AY3">
-        <v>-13.008898490438762</v>
+        <v>-13.008898484541751</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.1874063588047326</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.6842280729518051</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.4467550644250915</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-3.6157323479191565</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-14.440636468862062</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.8974950913786657</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.3982141536212165</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5.779384393735131</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.0996308749521768</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-13.16125522085046</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>6.9897562914394005</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-1.7591192237467053</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-5.7059583502078765E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>10.439479481171283</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.34375034779371189</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-1.3709288661713688</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.2745372631197423</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>5.4963549030658561</v>
+        <v>5.4964104716299849</v>
       </c>
       <c r="T2">
-        <v>-5.585233981175854</v>
+        <v>-5.5852124446583309</v>
       </c>
       <c r="U2">
-        <v>6.7016400345903202</v>
+        <v>6.7016737804689557</v>
       </c>
       <c r="V2">
-        <v>-6.4929975836391147</v>
+        <v>-6.4929764185925043</v>
       </c>
       <c r="W2">
-        <v>9.2097730441302659</v>
+        <v>9.2098140016352978</v>
       </c>
       <c r="X2">
-        <v>-0.61987223472022757</v>
+        <v>-0.61992265212796549</v>
       </c>
       <c r="Y2">
-        <v>-2.30835229492323</v>
+        <v>-2.3083747934557324</v>
       </c>
       <c r="Z2">
-        <v>-20.999676658685594</v>
+        <v>-20.99972263663928</v>
       </c>
       <c r="AA2">
-        <v>9.1232326325637381</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-1.2733965618927674</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.9756002081099844</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-4.8537602473102304</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-24.596626179627329</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-1.2679417752681839</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.2505137067325711</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-0.60136123305463196</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>56.462608122718031</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-1.5476122124810439</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>1.0566711623159319</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-7.3286659859495114</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.17123224000728032</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.37687517840857543</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-3.5983374058560926</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.220821557466278</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.13435707959168222</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.3678392454334509</v>
       </c>
       <c r="AS2">
-        <v>-0.38879796951015205</v>
+        <v>-0.38877432193045364</v>
       </c>
       <c r="AT2">
-        <v>-1.3544038843092743</v>
+        <v>-1.3543752111314902</v>
       </c>
       <c r="AU2">
         <v>0.95511657325889521</v>
       </c>
       <c r="AV2">
-        <v>-0.73509868711779025</v>
+        <v>-0.73508038857150515</v>
       </c>
       <c r="AW2">
-        <v>-0.29289582159082489</v>
+        <v>-0.292948551867176</v>
       </c>
       <c r="AX2">
-        <v>-3.6080237861667377</v>
+        <v>-3.6080647241483463</v>
       </c>
       <c r="AY2">
-        <v>2.611785322427139</v>
+        <v>2.6117559842354066</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.8406860689241018</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.24371918322241892</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.2297302694184773</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-9.9843875979247816</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>6.9591280205572357</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.35882140479531605</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.5891356951176583</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.2408405875901496</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.50358200088287297</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34.515416600312903</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>28.868627550418974</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-2.6320126098915937</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.50474310799385047</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.2310767151311972</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-17.409165318848071</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-2.3781458705217466</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.1597247839300042</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>6.6308408988483754</v>
       </c>
       <c r="T3">
-        <v>6.4313067686025098</v>
+        <v>6.4313329451278225</v>
       </c>
       <c r="U3">
-        <v>-5.9469314286241675</v>
+        <v>-5.9469003870136294</v>
       </c>
       <c r="V3">
-        <v>5.6011129277651523</v>
+        <v>5.6011129277651328</v>
       </c>
       <c r="W3">
-        <v>3.4602836727690782</v>
+        <v>3.4602836727690898</v>
       </c>
       <c r="X3">
-        <v>9.561213236445445</v>
+        <v>9.5612705745890185</v>
       </c>
       <c r="Y3">
-        <v>5.123134413919165</v>
+        <v>31.25583605458689</v>
       </c>
       <c r="Z3">
-        <v>-4.9296672327878275</v>
+        <v>-0.86946759350863723</v>
       </c>
       <c r="AA3">
-        <v>2.0698221546737674</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-0.80647413569933624</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.8151964536433054</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-7.7703526052423078</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-2.8333898225600911</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.9340011268602606</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>13.697809767313638</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>6.6966323069674374</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0.24252242036985769</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-5.0230929510223107E-2</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>33.039641667055029</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-0.49863454223393855</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.52166908404568468</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.335323146327184</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>12.118428200983541</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-5.9542176584270736</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-0.76322703012268489</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-1.9438539848862026</v>
+        <v>-1.943802696030839</v>
       </c>
       <c r="AS3">
-        <v>1.744735822268348</v>
+        <v>1.7447110861855391</v>
       </c>
       <c r="AT3">
-        <v>-2.8059240359554973</v>
+        <v>-2.805891688612741</v>
       </c>
       <c r="AU3">
         <v>-0.59789280357953078</v>
       </c>
       <c r="AV3">
-        <v>-0.62881768164244711</v>
+        <v>-0.62887003903685057</v>
       </c>
       <c r="AW3">
-        <v>-3.0976072018858196</v>
+        <v>-3.0975833178632945</v>
       </c>
       <c r="AX3">
-        <v>-23.822538710767208</v>
+        <v>-21.609972696075534</v>
       </c>
       <c r="AY3">
-        <v>-13.008898484541751</v>
+        <v>20.969429009877594</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.1873459537931392</v>
+        <v>10.439420823763685</v>
       </c>
       <c r="C2">
-        <v>2.0461873219809967</v>
+        <v>-0.27451878770839427</v>
       </c>
       <c r="D2">
-        <v>-4.4467910416850751</v>
+        <v>0.37687517840855428</v>
       </c>
       <c r="E2">
-        <v>-7.5410940154879276</v>
+        <v>0.1343756834943152</v>
       </c>
       <c r="F2">
         <v>-14.440613158700504</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.840686070422914</v>
+        <v>3.2310767151311972</v>
       </c>
       <c r="C3">
-        <v>0.94429725471042103</v>
+        <v>5.1597658033607727</v>
       </c>
       <c r="D3">
-        <v>1.2298085446484979</v>
+        <v>2.3353231463272066</v>
       </c>
       <c r="E3">
-        <v>-9.9843876262585063</v>
+        <v>-0.59635159644502955</v>
       </c>
       <c r="F3">
         <v>6.9590984115445798</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.1873459537931392</v>
+        <v>10.862361689314906</v>
       </c>
       <c r="C2">
-        <v>2.0461873219809967</v>
+        <v>10.439420823763685</v>
       </c>
       <c r="D2">
-        <v>-4.4467910416850751</v>
+        <v>8.395051113995466</v>
       </c>
       <c r="E2">
-        <v>-7.5410940154879276</v>
+        <v>0.37687517840855428</v>
       </c>
       <c r="F2">
         <v>-14.440613158700504</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.840686070422914</v>
+        <v>28.298408764636484</v>
       </c>
       <c r="C3">
-        <v>0.94429725471042103</v>
+        <v>3.2310767151311972</v>
       </c>
       <c r="D3">
-        <v>1.2298085446484979</v>
+        <v>1.7686715961889599</v>
       </c>
       <c r="E3">
-        <v>-9.9843876262585063</v>
+        <v>2.3353231463272066</v>
       </c>
       <c r="F3">
         <v>6.9590984115445798</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMapo_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.1873459641029389</v>
+      </c>
+      <c r="C2">
+        <v>2.0461873317237256</v>
+      </c>
+      <c r="D2">
+        <v>-4.4467910412634533</v>
+      </c>
+      <c r="E2">
+        <v>-7.5410940091454632</v>
+      </c>
+      <c r="F2">
+        <v>-14.440613149119486</v>
+      </c>
+      <c r="G2">
+        <v>7.8975486451277987</v>
+      </c>
+      <c r="H2">
+        <v>-5.3982446436694422</v>
+      </c>
+      <c r="I2">
+        <v>5.779384393735131</v>
+      </c>
+      <c r="J2">
+        <v>5.0996308749522132</v>
+      </c>
+      <c r="K2">
+        <v>7.1541840010625783</v>
+      </c>
+      <c r="L2">
+        <v>6.9898543878653392</v>
+      </c>
+      <c r="M2">
+        <v>-1.7591440308219692</v>
+      </c>
+      <c r="N2">
         <v>10.862361689314906</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>10.439420823763685</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.34375034779371189</v>
+      </c>
+      <c r="Q2">
+        <v>-5.1200054116754874</v>
+      </c>
+      <c r="R2">
+        <v>-0.27451878770839427</v>
+      </c>
+      <c r="S2">
+        <v>5.4964104716299849</v>
+      </c>
+      <c r="T2">
+        <v>-5.5852124446583309</v>
+      </c>
+      <c r="U2">
+        <v>6.7016737804689557</v>
+      </c>
+      <c r="V2">
+        <v>-6.4929764185925043</v>
+      </c>
+      <c r="W2">
+        <v>9.2098140016352978</v>
+      </c>
+      <c r="X2">
+        <v>-0.61992265212796549</v>
+      </c>
+      <c r="Y2">
+        <v>-2.3083747934557324</v>
+      </c>
+      <c r="Z2">
+        <v>-20.99972263663928</v>
+      </c>
+      <c r="AA2">
+        <v>9.1232326325637239</v>
+      </c>
+      <c r="AB2">
+        <v>17.401576999385536</v>
+      </c>
+      <c r="AC2">
+        <v>7.975516511220464</v>
+      </c>
+      <c r="AD2">
+        <v>0.21686108732857698</v>
+      </c>
+      <c r="AE2">
+        <v>-24.596626179627329</v>
+      </c>
+      <c r="AF2">
+        <v>-1.2679417752681839</v>
+      </c>
+      <c r="AG2">
+        <v>1.2505485127932428</v>
+      </c>
+      <c r="AH2">
+        <v>-0.60136123305463196</v>
+      </c>
+      <c r="AI2">
+        <v>56.462683935356985</v>
+      </c>
+      <c r="AJ2">
+        <v>0.22157871833301318</v>
+      </c>
+      <c r="AK2">
+        <v>1.0566239641443977</v>
+      </c>
+      <c r="AL2">
+        <v>-7.3286897101716706</v>
+      </c>
+      <c r="AM2">
         <v>8.395051113995466</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.37687517840855428</v>
       </c>
-      <c r="F2">
-        <v>-14.440613158700504</v>
-      </c>
-      <c r="G2">
-        <v>7.8975486339884799</v>
-      </c>
-      <c r="H2">
-        <v>-5.3982446368766634</v>
-      </c>
-      <c r="I2">
-        <v>5.7793843840008119</v>
-      </c>
-      <c r="J2">
-        <v>5.0996308832728525</v>
-      </c>
-      <c r="K2">
-        <v>7.154183991239031</v>
-      </c>
-      <c r="L2">
-        <v>6.9898543907147292</v>
-      </c>
-      <c r="M2">
-        <v>-1.7591440363267357</v>
-      </c>
-      <c r="N2">
-        <v>10.862361689697506</v>
-      </c>
-      <c r="O2">
-        <v>10.439420821348127</v>
-      </c>
-      <c r="P2">
-        <v>0.3437503323087655</v>
-      </c>
-      <c r="Q2">
-        <v>-5.1200054278077891</v>
-      </c>
-      <c r="R2">
-        <v>-0.27451880015958013</v>
-      </c>
-      <c r="S2">
-        <v>5.4964104944061232</v>
-      </c>
-      <c r="T2">
-        <v>-5.5852124474619753</v>
-      </c>
-      <c r="U2">
-        <v>6.7016737747672002</v>
-      </c>
-      <c r="V2">
-        <v>-6.4929764162567389</v>
-      </c>
-      <c r="W2">
-        <v>9.2098139995718284</v>
-      </c>
-      <c r="X2">
-        <v>-0.61992266998787238</v>
-      </c>
-      <c r="Y2">
-        <v>-2.30837478742865</v>
-      </c>
-      <c r="Z2">
-        <v>-20.999722635187645</v>
-      </c>
-      <c r="AA2">
-        <v>9.1232326270984334</v>
-      </c>
-      <c r="AB2">
-        <v>17.401576981049629</v>
-      </c>
-      <c r="AC2">
-        <v>7.9755164975407471</v>
-      </c>
-      <c r="AD2">
-        <v>0.21686107024949933</v>
-      </c>
-      <c r="AE2">
-        <v>-24.596626180509926</v>
-      </c>
-      <c r="AF2">
-        <v>-1.2679417951486038</v>
-      </c>
-      <c r="AG2">
-        <v>1.2505485116780275</v>
-      </c>
-      <c r="AH2">
-        <v>-0.60136126117813071</v>
-      </c>
-      <c r="AI2">
-        <v>56.462683921959979</v>
-      </c>
-      <c r="AJ2">
-        <v>0.22157869657095955</v>
-      </c>
-      <c r="AK2">
-        <v>1.0566239581522812</v>
-      </c>
-      <c r="AL2">
-        <v>-7.3286897139995411</v>
-      </c>
-      <c r="AM2">
-        <v>8.3950511120139115</v>
-      </c>
-      <c r="AN2">
-        <v>0.37687517377168805</v>
-      </c>
       <c r="AO2">
-        <v>-3.5983559763503536</v>
+        <v>-3.598355952413415</v>
       </c>
       <c r="AP2">
-        <v>1.9835358680018071</v>
+        <v>1.9835358783962709</v>
       </c>
       <c r="AQ2">
-        <v>0.13437567553301516</v>
+        <v>0.1343756834943152</v>
       </c>
       <c r="AR2">
-        <v>1.3678392338958048</v>
+        <v>1.3678392454334509</v>
       </c>
       <c r="AS2">
-        <v>-0.38877433457744293</v>
+        <v>-0.38877432193045364</v>
       </c>
       <c r="AT2">
-        <v>-1.354375226672262</v>
+        <v>-1.3543752111314902</v>
       </c>
       <c r="AU2">
-        <v>0.95511656017714208</v>
+        <v>0.95511657325889521</v>
       </c>
       <c r="AV2">
-        <v>-0.73508039063989428</v>
+        <v>-0.73508038857150515</v>
       </c>
       <c r="AW2">
-        <v>-0.29294857008468828</v>
+        <v>-0.292948551867176</v>
       </c>
       <c r="AX2">
-        <v>-3.6080647330127551</v>
+        <v>-3.6080647241483463</v>
       </c>
       <c r="AY2">
-        <v>2.6117559775409891</v>
+        <v>2.6117559842354066</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.8406860689241018</v>
+      </c>
+      <c r="C3">
+        <v>0.94429724835583961</v>
+      </c>
+      <c r="D3">
+        <v>1.2298085309928921</v>
+      </c>
+      <c r="E3">
+        <v>-9.9843875979247674</v>
+      </c>
+      <c r="F3">
+        <v>6.9590984220096104</v>
+      </c>
+      <c r="G3">
+        <v>0.35882140479531605</v>
+      </c>
+      <c r="H3">
+        <v>3.5890606108286058</v>
+      </c>
+      <c r="I3">
+        <v>1.2407900493027715</v>
+      </c>
+      <c r="J3">
+        <v>13.379580784991019</v>
+      </c>
+      <c r="K3">
+        <v>34.515416600312903</v>
+      </c>
+      <c r="L3">
+        <v>28.868576564884719</v>
+      </c>
+      <c r="M3">
+        <v>-2.6319898195054394</v>
+      </c>
+      <c r="N3">
         <v>28.298408764636484</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.2310767151311972</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-17.40915001103766</v>
+      </c>
+      <c r="Q3">
+        <v>-2.3781884847241086</v>
+      </c>
+      <c r="R3">
+        <v>5.1597658033607727</v>
+      </c>
+      <c r="S3">
+        <v>6.6308408988483754</v>
+      </c>
+      <c r="T3">
+        <v>6.4313329451278225</v>
+      </c>
+      <c r="U3">
+        <v>-5.9469003870136294</v>
+      </c>
+      <c r="V3">
+        <v>5.6011129277651328</v>
+      </c>
+      <c r="W3">
+        <v>3.4563904793482321</v>
+      </c>
+      <c r="X3">
+        <v>9.5612705745890185</v>
+      </c>
+      <c r="Y3">
+        <v>31.25583605458689</v>
+      </c>
+      <c r="Z3">
+        <v>-0.86946759350863723</v>
+      </c>
+      <c r="AA3">
+        <v>2.0698221546737674</v>
+      </c>
+      <c r="AB3">
+        <v>2.1103527488126126</v>
+      </c>
+      <c r="AC3">
+        <v>1.8151964536433054</v>
+      </c>
+      <c r="AD3">
+        <v>-7.7703712431615584</v>
+      </c>
+      <c r="AE3">
+        <v>-2.8333898225601106</v>
+      </c>
+      <c r="AF3">
+        <v>0.93402721617567475</v>
+      </c>
+      <c r="AG3">
+        <v>13.697809767313638</v>
+      </c>
+      <c r="AH3">
+        <v>6.7638184381555222</v>
+      </c>
+      <c r="AI3">
+        <v>1.4851238711055332</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.0200042909452243E-2</v>
+      </c>
+      <c r="AK3">
+        <v>33.039641667055093</v>
+      </c>
+      <c r="AL3">
+        <v>-0.49863454223393855</v>
+      </c>
+      <c r="AM3">
         <v>1.7686715961889599</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.3353231463272066</v>
       </c>
-      <c r="F3">
-        <v>6.9590984115445798</v>
-      </c>
-      <c r="G3">
-        <v>0.3588214127923286</v>
-      </c>
-      <c r="H3">
-        <v>3.5890606037521566</v>
-      </c>
-      <c r="I3">
-        <v>1.2407900374770957</v>
-      </c>
-      <c r="J3">
-        <v>13.379580771397432</v>
-      </c>
-      <c r="K3">
-        <v>34.515416611086771</v>
-      </c>
-      <c r="L3">
-        <v>28.868576571752619</v>
-      </c>
-      <c r="M3">
-        <v>-2.6318690838053067</v>
-      </c>
-      <c r="N3">
-        <v>28.29840876294643</v>
-      </c>
-      <c r="O3">
-        <v>3.2310767046127356</v>
-      </c>
-      <c r="P3">
-        <v>-17.40915001507982</v>
-      </c>
-      <c r="Q3">
-        <v>-2.3781884956335668</v>
-      </c>
-      <c r="R3">
-        <v>5.1597657804722052</v>
-      </c>
-      <c r="S3">
-        <v>6.6308408913717658</v>
-      </c>
-      <c r="T3">
-        <v>6.431332945300765</v>
-      </c>
-      <c r="U3">
-        <v>-5.9469003766712509</v>
-      </c>
-      <c r="V3">
-        <v>5.6011129266246229</v>
-      </c>
-      <c r="W3">
-        <v>3.4563904686039626</v>
-      </c>
-      <c r="X3">
-        <v>9.5612705617258822</v>
-      </c>
-      <c r="Y3">
-        <v>31.255836045360869</v>
-      </c>
-      <c r="Z3">
-        <v>-0.86946760225307929</v>
-      </c>
-      <c r="AA3">
-        <v>2.069822138978171</v>
-      </c>
-      <c r="AB3">
-        <v>2.1103527568198914</v>
-      </c>
-      <c r="AC3">
-        <v>1.8151964528078151</v>
-      </c>
-      <c r="AD3">
-        <v>-7.7703712512189407</v>
-      </c>
-      <c r="AE3">
-        <v>-2.8333898356151974</v>
-      </c>
-      <c r="AF3">
-        <v>0.93402721004068079</v>
-      </c>
-      <c r="AG3">
-        <v>13.697809772034987</v>
-      </c>
-      <c r="AH3">
-        <v>6.7638184234703678</v>
-      </c>
-      <c r="AI3">
-        <v>1.485123884617245</v>
-      </c>
-      <c r="AJ3">
-        <v>-5.0200023901905935E-2</v>
-      </c>
-      <c r="AK3">
-        <v>33.039641670384064</v>
-      </c>
-      <c r="AL3">
-        <v>-0.49863455525780725</v>
-      </c>
-      <c r="AM3">
-        <v>1.7686716027117275</v>
-      </c>
-      <c r="AN3">
-        <v>2.3353231316270762</v>
-      </c>
       <c r="AO3">
-        <v>12.118449628652463</v>
+        <v>12.118449623699767</v>
       </c>
       <c r="AP3">
-        <v>-5.9542576932853848</v>
+        <v>-5.9542576866819426</v>
       </c>
       <c r="AQ3">
-        <v>-0.59635161795190306</v>
+        <v>-0.59635159644502955</v>
       </c>
       <c r="AR3">
-        <v>-1.9438027016592565</v>
+        <v>-1.943802696030839</v>
       </c>
       <c r="AS3">
-        <v>1.7447110758795046</v>
+        <v>1.7447110861855391</v>
       </c>
       <c r="AT3">
-        <v>-2.805891711275474</v>
+        <v>-2.805891688612741</v>
       </c>
       <c r="AU3">
-        <v>-0.59789279829133624</v>
+        <v>-0.59789280357953078</v>
       </c>
       <c r="AV3">
-        <v>-0.62887004104677569</v>
+        <v>-0.62887003903685057</v>
       </c>
       <c r="AW3">
-        <v>-3.0975833259174945</v>
+        <v>-3.0975833178632945</v>
       </c>
       <c r="AX3">
-        <v>-21.609972698938908</v>
+        <v>-21.609972696075534</v>
       </c>
       <c r="AY3">
-        <v>20.969429001677238</v>
+        <v>20.969429009877594</v>
       </c>
     </row>
   </sheetData>
